--- a/doc/eccs-rulefactsheet.xlsx
+++ b/doc/eccs-rulefactsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\workspace\ecCausaSnipper\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA33249-8AB8-4CA8-A1D8-6FD001E7E969}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80859767-3859-4397-9DB1-2C7A0A87B8BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
   <si>
     <t>fact1</t>
   </si>
@@ -105,15 +105,6 @@
     <t>Effect Rules</t>
   </si>
   <si>
-    <t>no goal</t>
-  </si>
-  <si>
-    <t>new goal below strategy</t>
-  </si>
-  <si>
-    <t>A Goals must have on child</t>
-  </si>
-  <si>
     <t>child</t>
   </si>
   <si>
@@ -123,18 +114,6 @@
     <t>Explanations</t>
   </si>
   <si>
-    <t>2 GSN elements are connected</t>
-  </si>
-  <si>
-    <t>2 GSN elements are not connected</t>
-  </si>
-  <si>
-    <t>a GSN Element has no child</t>
-  </si>
-  <si>
-    <t>the GSN Element below another is a child</t>
-  </si>
-  <si>
     <t>Requires imediatly change of tree</t>
   </si>
   <si>
@@ -144,9 +123,6 @@
     <t>a tree contains all GSN elements</t>
   </si>
   <si>
-    <t>is always leaf</t>
-  </si>
-  <si>
     <t>Facts</t>
   </si>
   <si>
@@ -165,21 +141,12 @@
     <t>Leaf node</t>
   </si>
   <si>
-    <t>A GSN object which has no child</t>
-  </si>
-  <si>
     <t>Child node</t>
   </si>
   <si>
-    <t>A child node is a GSN object which is below another GSN object and is connected</t>
-  </si>
-  <si>
     <t>Connected nodes</t>
   </si>
   <si>
-    <t>GSN object has no child and it is no child of any other node</t>
-  </si>
-  <si>
     <t>Two GSN objects are connected if they have a "support" relation according GSN standard</t>
   </si>
   <si>
@@ -192,19 +159,106 @@
     <t>One tick of clock is one turn. Every turn consists of application of all applicable rules</t>
   </si>
   <si>
-    <t>Strategy, 1 &lt; n &lt;= 5 with n is number child nodes</t>
-  </si>
-  <si>
-    <t>new goal</t>
-  </si>
-  <si>
-    <t>Goal will connect to strategy</t>
-  </si>
-  <si>
-    <t>Strategy with 1 &lt; n+1 &lt;= 5 nodes</t>
-  </si>
-  <si>
     <t>Structure Rules (Combination rules)</t>
+  </si>
+  <si>
+    <t>1..3 turns have passed</t>
+  </si>
+  <si>
+    <t>a new solution is generated</t>
+  </si>
+  <si>
+    <t>a isolated solution at the bottom of the play area is there</t>
+  </si>
+  <si>
+    <t>Node below another</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>There might be a tolerance value that the node below is not exactly below</t>
+  </si>
+  <si>
+    <t>A isolated solution is there</t>
+  </si>
+  <si>
+    <t>a strategy is generated as child of these goal</t>
+  </si>
+  <si>
+    <t>The goal has a new child "solution"</t>
+  </si>
+  <si>
+    <t>solution has to be the child of the goal</t>
+  </si>
+  <si>
+    <t>The goals has a new child which is the solution</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>Free places</t>
+  </si>
+  <si>
+    <t>Space is a grid of columns and levels (= "rows"). The intersection of on column and on level is a place</t>
+  </si>
+  <si>
+    <t>A free place is a crosspoint beween a column and a level where no GSN element is located</t>
+  </si>
+  <si>
+    <t>a leave goal is above the number of free places between is &gt; 1</t>
+  </si>
+  <si>
+    <t>a leave goal is above the number of free places between is = 1</t>
+  </si>
+  <si>
+    <t>Short name for GSN Element is node</t>
+  </si>
+  <si>
+    <t>GSN object has no child and it is not a child of any other node</t>
+  </si>
+  <si>
+    <t>A GSN object without a child</t>
+  </si>
+  <si>
+    <t>A child node is a GSN object which is 1 level below another GSN object and is connected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A GSN object, which is located on the screen one or more level below an other GSN object. </t>
+  </si>
+  <si>
+    <t>Node  (1)</t>
+  </si>
+  <si>
+    <t>The GSN Elements will be connected if: 
+- (1) Goal and (2) is Strategy
+- (1) Goal and (2) Evidence
+- (1) Strategy and (2) Goal</t>
+  </si>
+  <si>
+    <t>GSN Element (2) is a child of GSN Element (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strategy with n child nodes where n &gt; 5 </t>
+  </si>
+  <si>
+    <t>Goal is leaf</t>
+  </si>
+  <si>
+    <t>Solution is isolated</t>
+  </si>
+  <si>
+    <t>The solution is useless</t>
+  </si>
+  <si>
+    <t>The strategy is useless</t>
+  </si>
+  <si>
+    <t>The goal is useless</t>
+  </si>
+  <si>
+    <t>another node (2) 1 level below</t>
   </si>
 </sst>
 </file>
@@ -390,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -432,12 +486,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -450,6 +498,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -459,44 +528,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -780,27 +838,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:F28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="22.9296875" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.59765625" customWidth="1"/>
+    <col min="4" max="4" width="25.46484375" customWidth="1"/>
+    <col min="5" max="5" width="26.1328125" customWidth="1"/>
     <col min="6" max="6" width="30.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B3" s="1"/>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="17" t="s">
-        <v>31</v>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -815,7 +873,7 @@
       <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.45">
@@ -844,7 +902,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -859,9 +917,7 @@
       <c r="E7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="F7" s="5"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.45">
@@ -873,11 +929,9 @@
         <v>11</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>34</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F8" s="5"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.45">
@@ -895,35 +949,37 @@
     <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="12"/>
+        <v>30</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="E10" s="14"/>
       <c r="F10" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1"/>
       <c r="C11" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="F11" s="5"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="1"/>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="18"/>
+      <c r="D12" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.45">
@@ -931,19 +987,19 @@
       <c r="C13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="2"/>
       <c r="F13" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="1"/>
       <c r="C14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="2"/>
       <c r="F14" s="5"/>
       <c r="G14" s="1"/>
@@ -971,13 +1027,13 @@
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="28"/>
+      <c r="F17" s="23"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:8" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="1"/>
       <c r="C18" s="29" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
@@ -986,212 +1042,232 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:8" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B20" s="1"/>
-      <c r="C20" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="28"/>
+      <c r="C20" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>41</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>52</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="2:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
-      <c r="C22" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>43</v>
+      <c r="C22" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B23" s="1"/>
-      <c r="C23" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>43</v>
+      <c r="C23" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="2:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B24" s="1"/>
-      <c r="C24" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>43</v>
+      <c r="C24" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:8" ht="57" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="1"/>
-      <c r="C25" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="6"/>
+      <c r="C25" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:8" ht="57" x14ac:dyDescent="0.45">
       <c r="B26" s="1"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="1"/>
+      <c r="C26" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="4"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:8" ht="57" x14ac:dyDescent="0.45">
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="C27" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="6"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="2:8" ht="15.75" x14ac:dyDescent="0.5">
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B28" s="1"/>
-      <c r="C28" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B29" s="1"/>
-      <c r="C29" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="36"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:8" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B30" s="1"/>
-      <c r="C30" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>53</v>
-      </c>
+      <c r="C30" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B31" s="1"/>
-      <c r="C31" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="5"/>
+      <c r="C31" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="34"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B32" s="1"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="C32" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>42</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B33" s="1"/>
       <c r="C33" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>56</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D33" s="5"/>
       <c r="E33" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>58</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="F33" s="5"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C34" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="6"/>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B34" s="1"/>
+      <c r="C34" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" s="5"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="5"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+    <row r="36" spans="2:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="C36" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
@@ -1220,83 +1296,99 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="2:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="28"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
+      <c r="C41" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="35" t="s">
+        <v>3</v>
+      </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C42" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>3</v>
+    <row r="42" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C42" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1" t="s">
-        <v>27</v>
+    <row r="43" spans="2:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C43" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+    <row r="44" spans="2:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C44" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="D12:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/eccs-rulefactsheet.xlsx
+++ b/doc/eccs-rulefactsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\workspace\ecCausaSnipper\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80859767-3859-4397-9DB1-2C7A0A87B8BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF873C3-28B9-4904-A49C-B99D8A3725DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="86">
   <si>
     <t>fact1</t>
   </si>
@@ -259,6 +259,33 @@
   </si>
   <si>
     <t>another node (2) 1 level below</t>
+  </si>
+  <si>
+    <t>A new goal is created as child</t>
+  </si>
+  <si>
+    <t>The strategy has n+1 child goals</t>
+  </si>
+  <si>
+    <t>A strategy is there which is a child of a node</t>
+  </si>
+  <si>
+    <t>Strategy has n childs with n &gt;=0</t>
+  </si>
+  <si>
+    <t>2..4 turns have passed</t>
+  </si>
+  <si>
+    <t>a new question is generated</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Questions are a source of new goals</t>
+  </si>
+  <si>
+    <t>a isolated question is on a free place</t>
   </si>
 </sst>
 </file>
@@ -444,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -555,6 +582,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -836,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:H46"/>
+  <dimension ref="B3:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1006,10 +1036,14 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1"/>
-      <c r="C15" s="6"/>
+      <c r="C15" s="39" t="s">
+        <v>83</v>
+      </c>
       <c r="D15" s="6"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.45">
@@ -1287,50 +1321,56 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+    <row r="39" spans="2:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C39" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="28"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="2:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C40" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="28"/>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C40" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>3</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C41" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="F41" s="35" t="s">
-        <v>3</v>
+    <row r="41" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C41" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C42" s="5" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -1367,19 +1407,43 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
+    <row r="45" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C45" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1387,7 +1451,7 @@
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C39:F39"/>
     <mergeCell ref="D12:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/eccs-rulefactsheet.xlsx
+++ b/doc/eccs-rulefactsheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\workspace\ecCausaSnipper\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF873C3-28B9-4904-A49C-B99D8A3725DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A3105E-0C8C-4673-BCDC-AFCB49EFCF88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="97">
   <si>
     <t>fact1</t>
   </si>
@@ -96,15 +96,9 @@
     <t>Quality man</t>
   </si>
   <si>
-    <t>Engineer</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
-    <t>Effect Rules</t>
-  </si>
-  <si>
     <t>child</t>
   </si>
   <si>
@@ -114,18 +108,12 @@
     <t>Explanations</t>
   </si>
   <si>
-    <t>Requires imediatly change of tree</t>
-  </si>
-  <si>
     <t>tree</t>
   </si>
   <si>
     <t>a tree contains all GSN elements</t>
   </si>
   <si>
-    <t>Facts</t>
-  </si>
-  <si>
     <t>Short name</t>
   </si>
   <si>
@@ -153,24 +141,12 @@
     <t>Related to</t>
   </si>
   <si>
-    <t>fact t+1 (=result)</t>
-  </si>
-  <si>
     <t>One tick of clock is one turn. Every turn consists of application of all applicable rules</t>
   </si>
   <si>
-    <t>Structure Rules (Combination rules)</t>
-  </si>
-  <si>
     <t>1..3 turns have passed</t>
   </si>
   <si>
-    <t>a new solution is generated</t>
-  </si>
-  <si>
-    <t>a isolated solution at the bottom of the play area is there</t>
-  </si>
-  <si>
     <t>Node below another</t>
   </si>
   <si>
@@ -180,69 +156,21 @@
     <t>There might be a tolerance value that the node below is not exactly below</t>
   </si>
   <si>
-    <t>A isolated solution is there</t>
-  </si>
-  <si>
-    <t>a strategy is generated as child of these goal</t>
-  </si>
-  <si>
-    <t>The goal has a new child "solution"</t>
-  </si>
-  <si>
-    <t>solution has to be the child of the goal</t>
-  </si>
-  <si>
-    <t>The goals has a new child which is the solution</t>
-  </si>
-  <si>
     <t>level</t>
   </si>
   <si>
-    <t>Free places</t>
-  </si>
-  <si>
-    <t>Space is a grid of columns and levels (= "rows"). The intersection of on column and on level is a place</t>
-  </si>
-  <si>
-    <t>A free place is a crosspoint beween a column and a level where no GSN element is located</t>
-  </si>
-  <si>
-    <t>a leave goal is above the number of free places between is &gt; 1</t>
-  </si>
-  <si>
-    <t>a leave goal is above the number of free places between is = 1</t>
-  </si>
-  <si>
     <t>Short name for GSN Element is node</t>
   </si>
   <si>
     <t>GSN object has no child and it is not a child of any other node</t>
   </si>
   <si>
-    <t>A GSN object without a child</t>
-  </si>
-  <si>
     <t>A child node is a GSN object which is 1 level below another GSN object and is connected</t>
   </si>
   <si>
     <t xml:space="preserve">A GSN object, which is located on the screen one or more level below an other GSN object. </t>
   </si>
   <si>
-    <t>Node  (1)</t>
-  </si>
-  <si>
-    <t>The GSN Elements will be connected if: 
-- (1) Goal and (2) is Strategy
-- (1) Goal and (2) Evidence
-- (1) Strategy and (2) Goal</t>
-  </si>
-  <si>
-    <t>GSN Element (2) is a child of GSN Element (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strategy with n child nodes where n &gt; 5 </t>
-  </si>
-  <si>
     <t>Goal is leaf</t>
   </si>
   <si>
@@ -252,21 +180,12 @@
     <t>The solution is useless</t>
   </si>
   <si>
-    <t>The strategy is useless</t>
-  </si>
-  <si>
     <t>The goal is useless</t>
   </si>
   <si>
-    <t>another node (2) 1 level below</t>
-  </si>
-  <si>
     <t>A new goal is created as child</t>
   </si>
   <si>
-    <t>The strategy has n+1 child goals</t>
-  </si>
-  <si>
     <t>A strategy is there which is a child of a node</t>
   </si>
   <si>
@@ -276,16 +195,127 @@
     <t>2..4 turns have passed</t>
   </si>
   <si>
-    <t>a new question is generated</t>
-  </si>
-  <si>
     <t>Question</t>
   </si>
   <si>
-    <t>Questions are a source of new goals</t>
-  </si>
-  <si>
-    <t>a isolated question is on a free place</t>
+    <t>Effect Rules +(S,F)</t>
+  </si>
+  <si>
+    <t>Structure Rules</t>
+  </si>
+  <si>
+    <t>?(S,F)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?(S, F) </t>
+  </si>
+  <si>
+    <t>Rule !(S, S*)</t>
+  </si>
+  <si>
+    <t>S*</t>
+  </si>
+  <si>
+    <t>Big Strategy</t>
+  </si>
+  <si>
+    <t>A GSN object without a child and not isolated</t>
+  </si>
+  <si>
+    <t>Interpretation Rules &gt;(F, S, S*)</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Phenomen</t>
+  </si>
+  <si>
+    <t>Measurement</t>
+  </si>
+  <si>
+    <t>ByLaw</t>
+  </si>
+  <si>
+    <t>In action if a strategy has too many childs</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Transforms a goal of some quality to goal of additional qualities</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>see below</t>
+  </si>
+  <si>
+    <t>Something what is obeserved</t>
+  </si>
+  <si>
+    <t>Some value measured according a theory</t>
+  </si>
+  <si>
+    <t>Something which is defined by law</t>
+  </si>
+  <si>
+    <t>Shrink Strategy</t>
+  </si>
+  <si>
+    <t>A Strategy with more then 3 childs</t>
+  </si>
+  <si>
+    <t>The 4th, 5th etc. child of strategy is deleted</t>
+  </si>
+  <si>
+    <t>a quality man appears  executes !(S,S*) "Big Strategy"</t>
+  </si>
+  <si>
+    <t>a big strategy is there</t>
+  </si>
+  <si>
+    <t>the strategy is no big strategy anymore</t>
+  </si>
+  <si>
+    <t>a question is on playfield</t>
+  </si>
+  <si>
+    <t>a question is there</t>
+  </si>
+  <si>
+    <t>The question is moved a long the line</t>
+  </si>
+  <si>
+    <t>the quesition is over a goal</t>
+  </si>
+  <si>
+    <t>the goal get added a random set of qualities</t>
+  </si>
+  <si>
+    <t>The touched goal has added qualities</t>
+  </si>
+  <si>
+    <t>a question is generated and gets a random movement line</t>
+  </si>
+  <si>
+    <t>moves one step along ist movement line</t>
+  </si>
+  <si>
+    <t>Goal has qualities</t>
+  </si>
+  <si>
+    <t>Goals contains quality markers</t>
+  </si>
+  <si>
+    <t>The strategy has n goals</t>
+  </si>
+  <si>
+    <t>The strategy has n connected child nodes of type goal</t>
+  </si>
+  <si>
+    <t>The strategy has n+1 goals</t>
   </si>
 </sst>
 </file>
@@ -339,7 +369,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -372,17 +402,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -458,20 +477,51 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -479,71 +529,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -552,7 +620,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -561,7 +629,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -570,21 +638,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -866,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:H48"/>
+  <dimension ref="B3:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -882,577 +955,677 @@
   <sheetData>
     <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B3" s="1"/>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="15" t="s">
-        <v>28</v>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>62</v>
+      <c r="F6" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="5"/>
+      <c r="E8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="5"/>
+      <c r="E9" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
-      <c r="C10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="5" t="s">
-        <v>31</v>
+      <c r="C10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="1"/>
-      <c r="C11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5"/>
+      <c r="C11" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="1"/>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="16"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="45"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B13" s="1"/>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="38"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="5" t="s">
-        <v>29</v>
+      <c r="F13" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="1"/>
-      <c r="C14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="5"/>
+      <c r="C14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="F14" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="1"/>
-      <c r="C15" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6" t="s">
-        <v>84</v>
+      <c r="C15" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
-      <c r="C17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:8" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="1"/>
-      <c r="C18" s="29" t="s">
-        <v>43</v>
-      </c>
+      <c r="C18" s="32"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
-      <c r="F18" s="31"/>
+      <c r="F18" s="30"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="1"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
-      <c r="C20" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
-      <c r="C21" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="5"/>
+      <c r="C21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:8" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
-      <c r="C22" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="5"/>
+      <c r="C22" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="1"/>
-      <c r="C23" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="5"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:8" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B24" s="1"/>
       <c r="C24" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="1"/>
-      <c r="C25" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="C25" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="4"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:8" ht="57" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B26" s="1"/>
-      <c r="C26" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>35</v>
+      <c r="C26" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:8" ht="57" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B27" s="1"/>
-      <c r="C27" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="22" t="s">
+      <c r="C27" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B28" s="1"/>
+      <c r="C28" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="1"/>
+      <c r="C29" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="2:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="B30" s="1"/>
+      <c r="C30" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B28" s="1"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="2:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="B30" s="1"/>
-      <c r="C30" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="28"/>
+      <c r="D30" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="3"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B31" s="1"/>
-      <c r="C31" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
+      <c r="C31" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="3"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B32" s="1"/>
-      <c r="C32" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>42</v>
-      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="5"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B33" s="1"/>
-      <c r="C33" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="5"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B34" s="1"/>
-      <c r="C34" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" s="5"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:8" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B35" s="1"/>
-      <c r="C35" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" s="5"/>
+      <c r="C35" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="35"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="2:8" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="C36" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>69</v>
-      </c>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B36" s="1"/>
+      <c r="C36" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="41"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+    <row r="38" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B38" s="1"/>
+      <c r="C38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="2:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C39" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="28"/>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B39" s="1"/>
+      <c r="C39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="4"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C40" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="F40" s="35" t="s">
-        <v>3</v>
-      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="4"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C41" s="5" t="s">
-        <v>45</v>
-      </c>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C42" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>85</v>
-      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="2:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="C43" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>53</v>
-      </c>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="2:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="C44" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>55</v>
-      </c>
+    <row r="44" spans="2:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C44" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="35"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C45" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>78</v>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C45" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>3</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
+    <row r="46" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C46" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
+    <row r="47" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C47" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="3:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C50" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="3:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C51" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="3:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C52" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+    </row>
+    <row r="56" spans="3:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C56" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C57" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C58" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" s="30"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="3:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C59" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" s="27"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C60" s="24"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C56:F56"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C44:F44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/eccs-rulefactsheet.xlsx
+++ b/doc/eccs-rulefactsheet.xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\workspace\ecCausaSnipper\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A3105E-0C8C-4673-BCDC-AFCB49EFCF88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC0AEE7-85F3-4DBB-ABD2-7FE1047CD5D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="645" yWindow="105" windowWidth="18750" windowHeight="12457" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Rules" sheetId="1" r:id="rId1"/>
+    <sheet name="Space-Force" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -355,7 +362,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,6 +372,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -611,6 +624,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -638,26 +672,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -941,7 +960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
@@ -955,11 +974,11 @@
   <sheetData>
     <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B3" s="1"/>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="14" t="s">
         <v>26</v>
       </c>
@@ -1069,24 +1088,24 @@
     </row>
     <row r="11" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="1"/>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="43"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="34"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="1"/>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="46"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="45"/>
+      <c r="F12" s="36"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
@@ -1114,7 +1133,7 @@
     </row>
     <row r="15" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="1"/>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="38" t="s">
         <v>71</v>
       </c>
       <c r="D15" s="26"/>
@@ -1186,12 +1205,12 @@
     </row>
     <row r="22" spans="2:7" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="45"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.45">
@@ -1341,23 +1360,23 @@
     </row>
     <row r="35" spans="2:8" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B35" s="1"/>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="35"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="42"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B36" s="1"/>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="41"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="48"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
@@ -1444,12 +1463,12 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="2:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="35"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="42"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
@@ -1568,12 +1587,12 @@
       <c r="F53" s="24"/>
     </row>
     <row r="56" spans="3:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C56" s="33" t="s">
+      <c r="C56" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="35"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="42"/>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.45">
@@ -1608,7 +1627,7 @@
       </c>
       <c r="D59" s="27"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="48" t="s">
+      <c r="F59" s="39" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1630,4 +1649,135 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918BBE19-BD43-4EDC-9421-991051F46D4F}">
+  <dimension ref="A7:M21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="12" width="7.06640625" style="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="H7" s="50"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="F8" s="50"/>
+      <c r="H8" s="50"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="D10" s="49">
+        <v>1</v>
+      </c>
+      <c r="E10" s="49">
+        <v>-2</v>
+      </c>
+      <c r="F10" s="49">
+        <v>0</v>
+      </c>
+      <c r="G10" s="49">
+        <v>2</v>
+      </c>
+      <c r="H10" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="D11" s="49">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="49">
+        <v>-2</v>
+      </c>
+      <c r="F11" s="49">
+        <v>-3</v>
+      </c>
+      <c r="G11" s="49">
+        <v>-4</v>
+      </c>
+      <c r="H11" s="49">
+        <v>0</v>
+      </c>
+      <c r="I11" s="49">
+        <v>4</v>
+      </c>
+      <c r="J11" s="49">
+        <v>3</v>
+      </c>
+      <c r="K11" s="49">
+        <v>2</v>
+      </c>
+      <c r="L11" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A15" s="49">
+        <f>A10+A11</f>
+        <v>0</v>
+      </c>
+      <c r="B15" s="49">
+        <f t="shared" ref="B15:M15" si="0">B10+B11</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="49">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F15" s="49">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="G15" s="49">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="H15" s="49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="49">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J15" s="49">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K15" s="49">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L15" s="49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M15" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C21" s="49">
+        <f>A10+A11</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>